--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 99999TSE01.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 99999TSE01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proyectos\Nueva carpeta\Bot-Creacion-de-Pedidos\AI_Engine\Resultados\Resultados buenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AF548C-D888-40D8-AC2B-EDD408076027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4B560-B193-4511-AC9D-FD3516002D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="8835" windowWidth="11325" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
   <si>
     <t>archivo</t>
   </si>
@@ -275,13 +275,16 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>. Total excl.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +296,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,11 +341,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,11 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +662,6 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" customWidth="1"/>
@@ -706,13 +716,13 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>90.025000000000006</v>
+        <v>91.978999999999999</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -755,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>85.097999999999999</v>
+        <v>89.534000000000006</v>
       </c>
       <c r="J4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,13 +814,13 @@
         <v>23</v>
       </c>
       <c r="I6">
-        <v>75.822999999999993</v>
+        <v>91.786000000000001</v>
       </c>
       <c r="J6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -853,13 +863,13 @@
         <v>28</v>
       </c>
       <c r="I8">
-        <v>86.224999999999994</v>
+        <v>92.811999999999998</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -902,13 +912,13 @@
         <v>33</v>
       </c>
       <c r="I10">
-        <v>89.617999999999995</v>
+        <v>92.582999999999998</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -921,6 +931,9 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
@@ -951,13 +964,13 @@
         <v>38</v>
       </c>
       <c r="I12">
-        <v>72.674000000000007</v>
+        <v>90.155000000000001</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -969,6 +982,9 @@
       </c>
       <c r="D13" t="s">
         <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1000,13 +1016,13 @@
         <v>41</v>
       </c>
       <c r="I14">
-        <v>86.224999999999994</v>
+        <v>92.811999999999998</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1049,13 +1065,13 @@
         <v>23</v>
       </c>
       <c r="I16">
-        <v>75.822999999999993</v>
+        <v>91.786000000000001</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1075,7 +1091,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1098,13 +1114,13 @@
         <v>47</v>
       </c>
       <c r="I18">
-        <v>69.054000000000002</v>
+        <v>92.15</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1127,13 +1143,14 @@
         <v>52</v>
       </c>
       <c r="I19">
-        <v>69.054000000000002</v>
+        <v>92.009</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,13 +1173,13 @@
         <v>57</v>
       </c>
       <c r="I20">
-        <v>69.054000000000002</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1185,13 +1202,13 @@
         <v>47</v>
       </c>
       <c r="I21">
-        <v>69.054000000000002</v>
+        <v>92.15</v>
       </c>
       <c r="J21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1214,13 +1231,13 @@
         <v>52</v>
       </c>
       <c r="I22">
-        <v>69.054000000000002</v>
+        <v>92.009</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1243,13 +1260,13 @@
         <v>57</v>
       </c>
       <c r="I23">
-        <v>69.054000000000002</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1272,13 +1289,13 @@
         <v>65</v>
       </c>
       <c r="I24">
-        <v>69.054000000000002</v>
+        <v>92.066999999999993</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1301,13 +1318,13 @@
         <v>68</v>
       </c>
       <c r="I25">
-        <v>85.097999999999999</v>
+        <v>89.534000000000006</v>
       </c>
       <c r="J25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1327,7 +1344,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1350,13 +1367,13 @@
         <v>71</v>
       </c>
       <c r="I27">
-        <v>86.224999999999994</v>
+        <v>92.811999999999998</v>
       </c>
       <c r="J27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1376,7 +1393,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1399,13 +1416,13 @@
         <v>38</v>
       </c>
       <c r="I29">
-        <v>72.674000000000007</v>
+        <v>90.155000000000001</v>
       </c>
       <c r="J29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1418,6 +1435,9 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
       <c r="G30" t="s">
         <v>38</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1448,13 +1468,13 @@
         <v>13</v>
       </c>
       <c r="I31">
-        <v>90.025000000000006</v>
+        <v>91.978999999999999</v>
       </c>
       <c r="J31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>65</v>
       </c>
       <c r="I33">
-        <v>69.054000000000002</v>
+        <v>92.066999999999993</v>
       </c>
       <c r="J33" t="s">
         <v>79</v>
@@ -1526,13 +1546,13 @@
         <v>68</v>
       </c>
       <c r="I34">
-        <v>85.097999999999999</v>
+        <v>89.534000000000006</v>
       </c>
       <c r="J34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1575,13 +1595,13 @@
         <v>71</v>
       </c>
       <c r="I36">
-        <v>86.224999999999994</v>
+        <v>92.811999999999998</v>
       </c>
       <c r="J36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1624,13 +1644,13 @@
         <v>38</v>
       </c>
       <c r="I38">
-        <v>72.674000000000007</v>
+        <v>90.155000000000001</v>
       </c>
       <c r="J38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1642,6 +1662,9 @@
       </c>
       <c r="D39" t="s">
         <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -1673,13 +1696,13 @@
         <v>28</v>
       </c>
       <c r="I40">
-        <v>86.224999999999994</v>
+        <v>92.811999999999998</v>
       </c>
       <c r="J40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1702,23 +1725,11 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I43">
         <f>AVERAGEIF(I2:I40, "&lt;&gt; -100")</f>
-        <v>78.257791666666648</v>
+        <v>91.693750000000009</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I41" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="69,054"/>
-        <filter val="72,674"/>
-        <filter val="75,823"/>
-        <filter val="85,098"/>
-        <filter val="86,225"/>
-        <filter val="89,618"/>
-        <filter val="90,025"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>
